--- a/Instructiuni/Other info.xlsx
+++ b/Instructiuni/Other info.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VAT 6 Iunie\VATMirus\Instructiuni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D55D3FF-EB0D-4636-81E3-4CF82EB6AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CBA0FE-0FB7-4574-A6D6-BC785924B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CE6F2218-B5FC-4205-B64D-99398C1C4A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Other info" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,6 +36,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,6 +512,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="D300 draft figures"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8721022C-51A6-4CC6-8393-32FF15BA0AC7}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1503,8 +1541,9 @@
       <c r="B52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="13">
-        <v>9501504</v>
+      <c r="C52" s="13" t="e" cm="1">
+        <f t="array" ref="C52">SUM('[1]D300 draft figures'!B8:B66+'[1]D300 draft figures'!C8:C66)-'[1]D300 draft figures'!B52-'[1]D300 draft figures'!B56</f>
+        <v>#REF!</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>48</v>

--- a/Instructiuni/Other info.xlsx
+++ b/Instructiuni/Other info.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VAT 6 Iunie\VATMirus\Instructiuni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CBA0FE-0FB7-4574-A6D6-BC785924B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AC980-1080-4ADB-83FE-05128CFB2B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CE6F2218-B5FC-4205-B64D-99398C1C4A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Other info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,28 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,19 +487,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="D300 draft figures"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8721022C-51A6-4CC6-8393-32FF15BA0AC7}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1541,9 +1503,8 @@
       <c r="B52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="13" t="e" cm="1">
-        <f t="array" ref="C52">SUM('[1]D300 draft figures'!B8:B66+'[1]D300 draft figures'!C8:C66)-'[1]D300 draft figures'!B52-'[1]D300 draft figures'!B56</f>
-        <v>#REF!</v>
+      <c r="C52" s="13">
+        <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>48</v>
@@ -1616,7 +1577,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>

--- a/Instructiuni/Other info.xlsx
+++ b/Instructiuni/Other info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VAT 6 Iunie\VATMirus\Instructiuni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VAT 20 Iunie\VATMirus\Instructiuni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AC980-1080-4ADB-83FE-05128CFB2B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9E9CC3-82D1-41B5-B599-566E4CE19676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CE6F2218-B5FC-4205-B64D-99398C1C4A34}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Nr.de evidenţă a plăţii</t>
   </si>
   <si>
-    <t>10301010423250523000032</t>
-  </si>
-  <si>
     <t>Se preia automat din cod</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>Jud. Ialomita, Loc.Facaeni, Str. Fetesti, Nr.264, Bloc C2, Parter, Biroul 2</t>
+  </si>
+  <si>
+    <t>10301010523250623000034</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8721022C-51A6-4CC6-8393-32FF15BA0AC7}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -841,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -964,10 +964,10 @@
         <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -975,11 +975,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -993,10 +993,10 @@
         <v>2023</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1007,13 +1007,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,14 +1021,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,14 +1036,14 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1051,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="3" t="s">
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="3" t="s">
@@ -1078,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>14191350</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" s="2">
         <v>2</v>
@@ -1124,13 +1124,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" s="2">
         <v>3</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" s="2">
         <v>4</v>
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" s="2">
         <v>5</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K31" s="2">
         <v>6</v>
@@ -1204,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="3" t="s">
@@ -1219,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="3" t="s">
@@ -1237,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" s="2">
         <v>9</v>
@@ -1254,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="5">
         <v>100</v>
@@ -1271,13 +1271,13 @@
         <v>18</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K36" s="2">
         <v>11</v>
@@ -1288,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K37" s="2">
         <v>12</v>
@@ -1305,13 +1305,13 @@
         <v>18</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1319,13 +1319,13 @@
         <v>18</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,13 +1333,13 @@
         <v>18</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="5">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="5">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>18</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="5">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
@@ -1501,13 +1501,13 @@
         <v>18</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C52" s="13">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1515,13 +1515,13 @@
         <v>18</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -1529,10 +1529,10 @@
         <v>18</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
@@ -1543,10 +1543,10 @@
         <v>18</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -1557,16 +1557,16 @@
         <v>18</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1574,271 +1574,271 @@
         <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
         <v>62</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="16">
         <v>2023</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" t="s">
-        <v>63</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" t="s">
-        <v>63</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" t="s">
-        <v>63</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="16">
         <v>14191350</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="10">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="10">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="10">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" t="s">
@@ -1847,10 +1847,10 @@
     </row>
     <row r="73" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" t="s">
@@ -1859,7 +1859,7 @@
     </row>
     <row r="74" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>11</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="75" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" t="s">
@@ -1883,10 +1883,10 @@
     </row>
     <row r="76" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" t="s">
@@ -1895,10 +1895,10 @@
     </row>
     <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" t="s">
@@ -1907,217 +1907,217 @@
     </row>
     <row r="78" spans="1:5" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" s="10">
         <v>2023</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="C82" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" s="10">
         <v>14191350</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="10">
         <v>0</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="10">
         <v>0</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="10">
         <v>0</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="10">
         <v>2023</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
